--- a/input/test1.xlsx
+++ b/input/test1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>s_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呵呵呵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ojewoif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,10 +456,10 @@
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -463,11 +475,14 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,8 +498,11 @@
       <c r="E3" s="3">
         <v>43419</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -500,8 +518,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>

--- a/input/test1.xlsx
+++ b/input/test1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>ojewoif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_mylist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,21 +453,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -470,19 +479,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -493,16 +505,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>43419</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,17 +527,17 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>

--- a/input/test1.xlsx
+++ b/input/test1.xlsx
@@ -14,24 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一个测试成就</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testhide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成就</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,11 +72,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_mylist</t>
+    <t>i_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_strlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b,c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿,波,次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_mylist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -463,81 +467,93 @@
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.125" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
         <v>43419</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
